--- a/comments.xlsx
+++ b/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,15 +441,10 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>message</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>message</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>likes</t>
         </is>
@@ -463,15 +458,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-02-14T18:28:38+0000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>Super</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -483,15 +473,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-02-14T16:19:09+0000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>Team zakoua aujourd'hui c'est kabato</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -503,15 +488,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-02-14T18:09:27+0000</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>Bonne fête au CM</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -523,16 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-02-14T15:44:22+0000</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>Team saint Valentin
 Poulet pané accompagné de pomme de terre sautées qui est bon 😘😘😘😘😘😘</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -543,18 +518,13 @@
         </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>2024-02-14T16:40:26+0000</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>Team valentin  😍 
 Pommes de terre  sauté  au poulet  
 Liliane Kehoun Jeanne-andree Yao Marie Ange Kimora Adelaide Yomi Rosie Quenn Yasmine Nourah Konate Marie Laure Chance Chance Bénie De Dieu Jean Jaures Dieu Merci Joh Gnamien Amandine Amanda  Aimé Grâce  Prunelle De Dieu Nadia Kouassi  Carine Aké  Ramess Smart Aliou  Cheickna Koita  Lydia Sandrine  Lavi Konan  Jean Jo Koblan @à la une</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
     </row>
@@ -566,16 +536,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-02-14T15:50:30+0000</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>Team zakoua 
 APF et une sucrerie 🥰🥰🥰🥰</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -587,16 +552,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-02-14T16:28:09+0000</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>Zakoua mon riz  dinor accompagner de sauce aubergine 
 Kindo Clement Koffi Bola Mireillebomisso Epse Béné Darnell Sacha Bomisso Cire Oroyad Anenou Fléchard Georges Faustine Leslie Marise Bomisso Solange Koffi Marie France Koffi Michael Cousse Koffi Yao Parfait Kouassi Ange Koffi Christian Kouame Bene</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -608,74 +568,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-02-14T15:39:52+0000</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>C'est placali avec sauce graine où il y a crabe, escargots et poisson fumé qui est bon pour la saint Valentin 🥰🥰🥰🥰</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="C9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>716403620672105_1341151463255100</t>
+          <t>716403620672105_367861902674067</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-02-14T22:13:29+0000</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Team st Valentin
-Entrée: Macédoine au thon
-Plat de résistance: foutou sauce graine et le riz
-Dessert : papaye. En vrai c'est ce que j'ai mangé aujourd'hui même 😌</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+          <t>Team zakoua
+Un bon plat de foufou accompagné de fruits de mer avec une bonne boisson fraîche 😋😍♥️</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>716403620672105_367861902674067</t>
+          <t>716403620672105_360551550196702</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>2024-02-14T17:05:57+0000</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Team zakoua
-Un bon plat de foufou accompagné de fruits de mer avec une bonne boisson fraîche 😋😍♥️</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>716403620672105_360551550196702</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2024-02-14T15:48:06+0000</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>Team zakoua 
 Riz couché
@@ -683,22 +605,17 @@
 Kabato couché</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>716403620672105_1114008583373787</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2024-02-14T16:26:11+0000</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Zakoua :
 Riz sauce graine 
@@ -723,8 +640,26 @@
 @à la une</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="C12" t="n">
         <v>63</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>716403620672105_1341151463255100</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Team st Valentin
+Entrée: Macédoine au thon
+Plat de résistance: foutou sauce graine et le riz
+Dessert : papaye. En vrai c'est ce que j'ai mangé aujourd'hui même 😌</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -735,16 +670,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-02-14T17:20:38+0000</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>#Dinor  zakoua:
 Frite au poulet, accompagné de bon Vin</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="C14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -755,11 +685,6 @@
         </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>2024-02-14T15:59:48+0000</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>Team Saint Valentin
 Couscous au mechoui 
@@ -767,7 +692,7 @@
 Frites de pommel de terres au steack</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -778,11 +703,6 @@
         </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>2024-02-15T08:05:30+0000</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>Eeeeeeeeh dinor merci de me la rappeler ooooooh  
 Team Zakoua 
@@ -790,7 +710,7 @@
 Pourquoi c'était doux donc a nous aller pour le coucher au calme</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -802,15 +722,10 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-02-14T22:53:01+0000</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
           <t>Bonne  chance</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -821,11 +736,6 @@
         </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>2024-02-14T15:46:42+0000</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>Zakoua :
 Garba chaud,pain avec du café au lait 
@@ -833,7 +743,7 @@
 Frites de pommes de terre accompagné de poulets, attieké accompagné de poulets, riz avec sauce tomate Dinor CI,Fabienne N'ta,@à la une</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="C18" t="n">
         <v>8</v>
       </c>
     </row>
@@ -844,11 +754,6 @@
         </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>2024-02-14T15:51:06+0000</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>*Zakoua*
 -Des minis croissant 🥐🥖 fait a base de beurre + café au lait🤗🤩🥰
@@ -856,7 +761,7 @@
 -Du Poulet accompagné des spaghettis en forme de cœur sans oublier la mayonnaise 🥰 Dinor CI 🤩 avec le Vin  🤗🤗🤗</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="C19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -868,15 +773,10 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-02-14T20:05:01+0000</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
           <t>Zakoua: bouillie de sorgho aromatisée au Gingembre avec gbofloto</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -887,11 +787,6 @@
         </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>2024-02-14T21:32:49+0000</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>Zakoua : 
 Kedjenou de poulet avec atiéké
@@ -902,7 +797,7 @@
 Dinor CI</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -913,11 +808,6 @@
         </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>2024-02-14T16:01:38+0000</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>Zakoua :
 Gbozon
@@ -967,7 +857,7 @@
 Élodie Apoutchou  Djaou</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="C22" t="n">
         <v>52</v>
       </c>
     </row>
@@ -978,11 +868,6 @@
         </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>2024-02-15T11:24:28+0000</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>Team Saint Valentin
 Poulet Braisé avec Attieke
@@ -994,7 +879,7 @@
 Kouassi Honorine</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,16 +891,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-02-14T17:55:47+0000</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
           <t>Zakoua 
 Riz gras sauter bien préparé avec Dinor CI 🥰</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1026,11 +906,6 @@
         </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>2024-02-14T21:01:22+0000</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>Team saint Valentin
 Entrée : salade d’avocat 
@@ -1038,7 +913,7 @@
 Dessert : yaourt yoplait</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1049,11 +924,6 @@
         </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>2024-02-14T21:10:45+0000</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>Zakoua
 Garba agrémenté de mayonnaise Dinor
@@ -1063,8 +933,594 @@
 Justine Yobouett</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="C26" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>716403620672105_761075456070181</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Roro Levi</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>716403620672105_2053485168350228</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Team zakoua
+Pain godio café baoulé
+Foutou igname couché sauce gnangnan
+Riz gras mangne sec</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>716403620672105_250138718135173</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Team Zakoua:
+Attieké poisson avec alloco
+Riz Dinor avec sauce aubergine avec magne
+Team Valentin :
+Pommes de terre sautées au poulet au four  et sauce piquante
+Gratin de vermicelles et poulet haché avec la sauce tomate 
+Vanessa Mahan
+Mabelle Olive Guie
+Flore Lingué
+Miiss Koblan
+Berenger Lévite Bah
+Aimée Lafleur Ettien
+Gna Konnan
+Ephrem Kouassi
+Coulibaly Pepegnan Honoré
+Stephanie Flora Yao
+Michelle Loua
+Celine Mianoh</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>716403620672105_267180063078568</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Team zakoua</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>716403620672105_1069217704348070</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Team ZAKOUA
+- Garba avec le poisson bien chaud et mayonnaise dinor.(petit dèj)
+- Riz avec kédjénou de pondeuse (déjeuner)
+-petite salade 🥗  sur le côté (Dîner)
+Et puis on boit l'eau bien glacé 🤣🤣🤣
+Team SAINT VALENTIN 
+- Pain œuf au plat avec petit café ☕️, rose 🌹 à côté (Petit dèj)
+- Couscous sauce claire avec mouton( déjeuner)
+- Brochette de poisson avec des légumes croquants(Dîner)
+Tout ça accompagné des je t'aime,  bisous 😚  eussssss 🥰😘❤️💞❤️</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>716403620672105_7238252036213005</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>**Zakoua **
+Du sandwich accompagné des desein fait par la mayonnaise Dinor accompagné du bon lait chaud 
+**Saint Valentin **
+Viande de mouton fouré avec des pommes de terre sauté accompagné du pain sans oublier mayo Dinor CI 
+Avec Dinor Côte d'Ivoire c est toujours la bonne santé accompagné d'une joie de vivres 
+@followers @à la une Jean Jo Koblan Jeanne-andree Yao Dieu Merci Fleur Danielle Boro Carine Aké Garçon Atte Nassou Diabaté Kouakou Koffi Alban Jacques Bosco Kouadıo Marlene Kouakou Kouassi Kouassi Christina Kouakou Justice Beyra Nathanaelle Edwige Kouassi</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>716403620672105_760729822280370</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Team saint Valentin
+Poulet pané accompagné de pomme de terre sautées</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>716403620672105_1769824536762812</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Zakoua Team : Riz couché dans sauce graine 
+Saint Valentin Team : Pintade rôti accompagnée de salade de légumes + du caviar</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>716403620672105_757832586275472</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Zakoua, riz Dinor CI  sac rouge accompagné de sauce graine hé Allah 🚶🚶🚶🚶🚶🚶
+Roro Levi 
+Ulrich Elvis Ogou 
+Bema Diarra 
+Autorité Hamsik 
+Ahoua Aristide Kouamé</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>716403620672105_3181684812138871</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Merci beaucoup</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>716403620672105_993130002164958</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Zakoua
+Pain cafe baoule
+Riz couche avc sauce graine
+Foutou avc sauce arachide 
+Team st valentin 
+Croissant cafe au lait
+Poulet sauté accompagné de petit pois et pain
+Caviar</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>716403620672105_361001403518337</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Team st Valentin
+Poisson grillé avec l'huile dinor raffiné petit piment sur le côté accompagné d'attiéké . Mayonnaise dinor pour bien agrémenté le dabali.</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>716403620672105_798636978966241</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Team Zakoua : 
+• Gnonmie avec lait 
+• café + pain de 3 semaine 🤧 
+• Riz couché accompagné de la sauce Graine. 
+Dessert: banane braisé + arachide. Accompagné de bissap 
+Team Saint Valentin : 
+• Filet de saumon rougit à la poêle  chaude,  mêlé de vin de Bordeaux. 
+• Velouté de petits pois entrelacés à des croûtes d’oignon farcis. 
+• Dos de cabillaud et ses petites légumes jumelé au safran. 
+Dessert : du fondant de chocolat fouetté avec du biscuit chinois. Comme boisson du: vin mousseux entrelacés de pépite de fleurs inter-freeze. 
+Tout ça avec Dinor CI à côté 🥰✨</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>716403620672105_717841490332067</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Team st valentin
+Entrée salade niçoise 
+Plat de résistance gambas au four
+Desert yaourt nature avec des petites fraises à l’intérieur ❤️</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>716403620672105_273786739070640</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Team Zakoua oyé
+*Pain avec café
+*Attieke omelette
+*Riz gras sauvage
+St Valentin
+*Salade de Gésiers sautés aux petits oignons
+*Gigot d'agneau braisé accompagné de ses trois piments
+*Yaourt fait maison en dessert 
+Ange Ble
+Justine Yobouet
+Adélaide Yapi
+Benedicte Oka</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>716403620672105_1097721698242733</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Team saint Valentin
+Poulet frit accompagné d'attieké
+Plus un vin
+@à la une
+Yao Helene</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>716403620672105_1437636770464756</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Team saint Valentin
+_marcedoine au oeuf
+_risotto au boeuf
+_ mousse au chocolat</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>716403620672105_358277947033388</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Team zakoua :
+C'est riz couché
+Team saint Valentin :
+C'est placali avec sauce graine où il y a crabe, escargots et poisson fumé qui est bon pour la saint Valentin 🥰🥰🥰🥰</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>716403620672105_1366623874047125</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Team zakouski
+Matin : plakali 200 f Pkolo 300 f
+Midi :  rien je garde l argent pour me faire plaisir le soir 
+Le soir : poulet ( son cravate )
+                 Et ma bouteille d eau kiréne pour pensé à baller. 
+🥰🥰🥰🥰🥰 la vie continue</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>716403620672105_1068385044465937</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>C'est quelle histoire de zakoua</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>716403620672105_319795403891188</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Team ZAKOUA :
+- garba + thon non salé+ mayonnaise Dinor
+- foutou igname + sauce gouagouassou accompagné de viande de brousse 
+- riz sauce feuille accompagné de poisson .
+Le menu est lourd mais c'est comme ça y et
+@à la une</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>716403620672105_212149001989884</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Team saint Valentin
+Poulet pané accompagné de pomme de terre sautée</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>716403620672105_931824894987648</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Team zakoua 
+Matin: Pain condiments de chez tantie achou 🙄
+Midi: akpessi avec œuf bouillie 🥰
+Diner: riz avec reste de sauce graine d'hier 😊</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>716403620672105_1139485387468635</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Team saint Valentin
+Poulet flambé à accompagner de frite
+Bénie De Dieu 
+Chance Chance 
+Prunelle De Dieu 
+Jean Jo Koblan 
+Matou Marega 
+Gloire de Dieu 
+Innocent Biletchy 
+Joiquim Konan 
+Chanel Moaye 
+Marie Tope 
+Abdul Rahim 
+Jacques Stephane 
+Ange-Alexandrine Bede 
+Ciel Mer Terre 
+Sonia Nogbou 
+Marie Laure 
+Anne Marie Yaba 
+Binta Bity Ouattara 
+Stephanie Bede 
+Elisabeth-Flora Brou-essi 
+Jeanne-andree Yao 
+Joelle Diarra 
+Verushka Jordan's 
+Steeve Marley 
+Seraphine Mete 
+Rosine Sib Batienon 
+Sandrine Kotan 
+Guy-gervais Venceslas Seka 
+Soleil Nadia 
+Stephanie Yaba</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>716403620672105_368720292602458</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Myriiam Myriiam Cisse
+Satinin Ines Bomisso
+Mimi Timi Diabagaté
+Jesa CI</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>716403620672105_251483864670864</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Placali sauce Copé
+Foutou banane sauce graine
+Poisson braisé avec Aromate
+Dinor CI  voici ma liste ❤️
+Mes Valentin venez m'aider et liker mon commentaire @à la uneeCamille GouanouuEdmonde GohierrAwa Jolibilitè CoulibalyyKonan Amenan HermineeSekongo Yalamissa FlaviooHervé AmonnJade SorooRodrigue Kouadio N'guessannRita KakouuArsène GuiGui</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>716403620672105_934700047710672</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TEAM ZAKOUA: Chez le peuple bété, l’étranger est roi. A ce titre, son petit déjeuner est spécial et fonction du vivrier du moment. Mars, Avril et mai, c’est la période de la banane plantain. Ingrédient indispensable pour réaliser cette purée de banane mûre à la sauce à base de sorte d’amandes rondes et blanches appelées : « Siôkô ». 
+Pour la préparation de cette spécialité bété il faut :
+ • De la banane bien mûre
+ • Des champignons noirs de palmiers
+ • Des champignons ‘‘Gouro’’
+ • Du poisson ‘‘magne’’ sec
+ • Du cube d’assaisonnement
+ • Du piment sec en poudre
+ • Du ‘‘siôkô’’
+Tout commence par l’épluchure des bananes puis leur cuisson dans une casserole remplie d’eau. Pendant ce temps, on verse le jus des champignons nettoyés et lavés dans une autre casserole. On y ajoute le poisson qu’on aura pris le soin d’émietter. On laisse le tout bouillir. Vous l’avez bien compris, deux foyers (de feu) sont nécessaires en simultané.
+Une fois les bananes cuites, on les écrase doucement dans un mortier. Quand la purée obtenue est dure, on y ajoute un peu d’eau de cuisson de la banane afin de la ramollir. Notre purée étant prête, on vérifie la sauce. On y ajoute, le piment, le sel, le cube d’assaisonnement et la poudre de siôkô. On laisse mijoter à feu doux quelques minutes. Si l’on est satisfait de l’assaisonnement, notre ‘‘ loko-soukouè’’ est prêt pour la consommation.         TEAM SAINT VALENTIN : Voici une délicieuse recette spéciale Saint-Valentin à réaliser à la plancha : des brochettes de crevettes  et de fruits avec une sauce au miel et au citron . Cette recette est à la fois savoureuse et romantique.
+Les ingrédients de cette recettes sont disponibles dans le carrousel d'image !
+1. Prépare tes brochettes en alternant les crevettes, les quartiers de pêche, les morceaux de poivron , les quartiers d'oignon et les tomates cerises  sur des brochettes en bois ou en métal.
+2. Dans un petit bol, mélange le miel, le jus de citron, l'huile d'olive, l'ail émincé, le sel, le poivre noir moulu et le paprika doux pour préparer la sauce .
+3. Place les brochettes sur la plancha préchauffée avec de l'huile neutre ou citronnée et badigeonne-les généreusement de sauce. Réserve une partie de la sauce pour la fin de la cuisson.
+4. Fait cuire les brochettes pendant environ 3 à 4 minutes de chaque côté, ou jusqu'à ce que les crevettes soient roses et bien cuites, en les retournant et en les badigeonnant de sauce supplémentaire pendant la cuisson.
+5. Une fois les brochettes cuites, retire-les du gril et laisse-les reposer pendant quelques minutes.
+6. Sert les brochettes chaudes avec un peu de sauce supplémentaire pour napper. Tu peux accompagner ce plat d'une salade verte ou de riz pour un repas complet.
+Cette recette de brochettes de crevettes et de fruits au barbecue est parfaite pour une soirée romantique de la Saint-Valentin .</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>716403620672105_1826592151102312</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Team saint Valentin 
+Grillades de poulet et alloco accompagné du mayonnaise Dinor
+Riz avec du poulet grillé avec l’huile dinor
+@à la une
+Like mon commentaire 
+@followers
+Jeanne-andree Yao
+Jean Jaures
+Jean FrançoisJean jo koblan Jamilah KonatéJean Doué
+Jean KoblanSauveur Juste
+Petit JeanCathy MbounaDiegou Constant Djollo
+Yasmine Nourah KonateYash LeyyPacome PoudrichtPatricia ElumajuPatroOn Bah d'AbidjanMorel AkomianKimora Adelaide YomiMarie AngeAu DreyAmandine AmandaFabrice AminHervé YaoDieu Merci
+Chance Chance
+Seraphine MeteSöül ÕdgTauben TaubenMarthe Sandrine N'kpoman OurouhonSarah Gnenaho</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
